--- a/KTNC_ASMFinal/test-case.xlsx
+++ b/KTNC_ASMFinal/test-case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming_folder\java_folder\eclipse_KTNC\KTNC_ASMFinal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming_folder\ktnc_asm\KTNC_ASMFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D1218C-A31D-4FDB-A6D5-D23DA569CBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41CD649-9B96-4AA9-8F6D-D89C0BA994E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test case" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -286,6 +286,17 @@
 Register failed == Found bug log</t>
   </si>
   <si>
+    <t>Case 1: An account is already registered with your email address.
+Case 2: An account is already registered with that username.
+Case 3: Invalid input.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case 1: An account is already registered with your email address.
+Case 2: An account is already registered with that username.
+Case 3: An account is already registered with your email address.
+</t>
+  </si>
+  <si>
     <t>Case 1:
 username=khoadepzai
 email=abcxyz12@gmail.com
@@ -293,19 +304,23 @@
 Case 2:
 username=anhkhoa
 email=abcxyz1@gmail.com
-password=anhkhoa123</t>
+password=anhkhoa123
+Case 3:
+username=
+email=legitUserxx@gmail.com
+password=</t>
   </si>
   <si>
-    <t xml:space="preserve">Case 1: An account is already registered with your email address.
-Case 2: An account is already registered with that username.
-</t>
+    <t>F-REG-001_3</t>
   </si>
   <si>
-    <t>Case 1: An account is already registered with your email address.
-Case 2: An account is already registered with that username.</t>
+    <t>testRegister failed at case: 3</t>
   </si>
   <si>
-    <t>Passed</t>
+    <t>testRegister failed at case: 3 expected [true] but found [false]</t>
+  </si>
+  <si>
+    <t>09/04/2024</t>
   </si>
 </sst>
 </file>
@@ -770,8 +785,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -910,7 +925,7 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
     </row>
-    <row r="4" spans="1:26" ht="104.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="169.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -921,16 +936,16 @@
         <v>48</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>13</v>
@@ -28859,10 +28874,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F94EB45-10F1-4F22-BDFA-6A251409DF50}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -28992,6 +29007,29 @@
         <v>40</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KTNC_ASMFinal/test-case.xlsx
+++ b/KTNC_ASMFinal/test-case.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming_folder\java_folder\eclipse_KTNC\KTNC_ASMFinal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming_folder\ktnc_asm\KTNC_ASMFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D1218C-A31D-4FDB-A6D5-D23DA569CBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12909460-0930-4DAA-89BA-FA70401A5836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -286,6 +286,19 @@
 Register failed == Found bug log</t>
   </si>
   <si>
+    <t xml:space="preserve">Case 1: An account is already registered with your email address.
+Case 2: An account is already registered with that username.
+</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Case 1: An account is already registered with your email address.
+Case 2: An account is already registered with that username.
+Case 3: Register successfully.</t>
+  </si>
+  <si>
     <t>Case 1:
 username=khoadepzai
 email=abcxyz12@gmail.com
@@ -293,19 +306,17 @@
 Case 2:
 username=anhkhoa
 email=abcxyz1@gmail.com
+password=anhkhoa123
+Case 3:
+username=anhkhoaxx
+email=abcxyz1xx@gmail.com
 password=anhkhoa123</t>
   </si>
   <si>
     <t xml:space="preserve">Case 1: An account is already registered with your email address.
 Case 2: An account is already registered with that username.
+Case 3: Register successfully.
 </t>
-  </si>
-  <si>
-    <t>Case 1: An account is already registered with your email address.
-Case 2: An account is already registered with that username.</t>
-  </si>
-  <si>
-    <t>Passed</t>
   </si>
 </sst>
 </file>
@@ -771,7 +782,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -910,7 +921,7 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
     </row>
-    <row r="4" spans="1:26" ht="104.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="156.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -921,16 +932,16 @@
         <v>48</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>13</v>
@@ -28862,7 +28873,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD35"/>
+      <selection activeCell="A5" sqref="A5:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/KTNC_ASMFinal/test-case.xlsx
+++ b/KTNC_ASMFinal/test-case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming_folder\ktnc_asm\KTNC_ASMFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12909460-0930-4DAA-89BA-FA70401A5836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B54A8F-9877-44A9-AEAE-F08493F08F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -286,17 +286,10 @@
 Register failed == Found bug log</t>
   </si>
   <si>
-    <t xml:space="preserve">Case 1: An account is already registered with your email address.
-Case 2: An account is already registered with that username.
-</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
     <t>Case 1: An account is already registered with your email address.
 Case 2: An account is already registered with that username.
-Case 3: Register successfully.</t>
+Case 3: Register successfully.
+Case 4: Invalid input.</t>
   </si>
   <si>
     <t>Case 1:
@@ -305,18 +298,53 @@
 password=anhkhoa123
 Case 2:
 username=anhkhoa
-email=abcxyz1@gmail.com
+email=abcxyz1cs@gmail.com
 password=anhkhoa123
 Case 3:
-username=anhkhoaxx
-email=abcxyz1xx@gmail.com
-password=anhkhoa123</t>
+username=anhkhoaxxx
+email=abcxyz1xxx@gmail.com
+password=anhkhoa123
+Case 4:
+username=anhkhoaavc
+email=abcxyz1qw@gmail.com
+password=abc</t>
   </si>
   <si>
     <t xml:space="preserve">Case 1: An account is already registered with your email address.
 Case 2: An account is already registered with that username.
-Case 3: Register successfully.
+Case 3: An account is already registered with your email address.
+Case 4: An account is already registered with that username.
 </t>
+  </si>
+  <si>
+    <t>F-REG-001_1</t>
+  </si>
+  <si>
+    <t>testRegister failed at case: 1</t>
+  </si>
+  <si>
+    <t>testRegister failed at case: 1 expected [true] but found [false]</t>
+  </si>
+  <si>
+    <t>09/04/2024</t>
+  </si>
+  <si>
+    <t>F-REG-001_3</t>
+  </si>
+  <si>
+    <t>testRegister failed at case: 3</t>
+  </si>
+  <si>
+    <t>testRegister failed at case: 3 expected [true] but found [false]</t>
+  </si>
+  <si>
+    <t>F-REG-001_4</t>
+  </si>
+  <si>
+    <t>testRegister failed at case: 4</t>
+  </si>
+  <si>
+    <t>testRegister failed at case: 4 expected [true] but found [false]</t>
   </si>
 </sst>
 </file>
@@ -790,7 +818,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.54296875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="27.36328125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="28.6328125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="25.6328125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="26.26953125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="8" width="25.36328125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="8" width="27.90625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="8" width="14.26953125" collapsed="true"/>
@@ -921,7 +949,7 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
     </row>
-    <row r="4" spans="1:26" ht="156.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="208.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -932,16 +960,16 @@
         <v>48</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>13</v>
@@ -28870,10 +28898,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F94EB45-10F1-4F22-BDFA-6A251409DF50}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD36"/>
+      <selection activeCell="A5" sqref="A5:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -29003,6 +29031,75 @@
         <v>40</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KTNC_ASMFinal/test-case.xlsx
+++ b/KTNC_ASMFinal/test-case.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming_folder\ktnc_asm\KTNC_ASMFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41CD649-9B96-4AA9-8F6D-D89C0BA994E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18E4E8E-8EC0-4C46-B4F1-D68FC26F8DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -291,24 +291,18 @@
 Case 3: Invalid input.</t>
   </si>
   <si>
-    <t xml:space="preserve">Case 1: An account is already registered with your email address.
-Case 2: An account is already registered with that username.
-Case 3: An account is already registered with your email address.
-</t>
-  </si>
-  <si>
     <t>Case 1:
 username=khoadepzai
 email=abcxyz12@gmail.com
 password=anhkhoa123
 Case 2:
 username=anhkhoa
-email=abcxyz1@gmail.com
+email=abcxyz1qw@gmail.com
 password=anhkhoa123
 Case 3:
-username=
+username=aa
 email=legitUserxx@gmail.com
-password=</t>
+password=sadasdasd</t>
   </si>
   <si>
     <t>F-REG-001_3</t>
@@ -322,12 +316,23 @@
   <si>
     <t>09/04/2024</t>
   </si>
+  <si>
+    <t>Register successfully</t>
+  </si>
+  <si>
+    <t>Register failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case 1: An account is already registered with your email address.
+Case 2: An account is already registered with that username.
+Case 3: An account is already registered with your email address.
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -786,21 +791,21 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.54296875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="27.36328125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="28.6328125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="25.6328125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="8" width="25.36328125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="8" width="27.90625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="8" width="14.26953125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="8" width="10.36328125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="8" width="45.453125" collapsed="true"/>
-    <col min="10" max="16384" style="8" width="12.6328125" collapsed="true"/>
+    <col min="1" max="1" width="13.54296875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.36328125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.6328125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.6328125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.36328125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.90625" style="8" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.26953125" style="8" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.36328125" style="8" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="45.453125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="12.6328125" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="20.5" x14ac:dyDescent="0.45">
@@ -925,7 +930,7 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
     </row>
-    <row r="4" spans="1:26" ht="169.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="182.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -936,13 +941,13 @@
         <v>48</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>26</v>
@@ -28877,24 +28882,24 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="15.7265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="34.54296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="48.1796875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="11.36328125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="8.26953125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="16.1796875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="17.54296875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="14.90625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="15.36328125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="23.7265625" collapsed="true"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" style="1" width="34.54296875" collapsed="true"/>
-    <col min="14" max="16384" style="1" width="35.90625" collapsed="true"/>
+    <col min="1" max="1" width="15.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="48.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.36328125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.90625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.36328125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="34.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="35.90625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.5" x14ac:dyDescent="0.35">
@@ -29007,27 +29012,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
       </c>
       <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" t="s">
         <v>56</v>
       </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -29045,15 +29050,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.26953125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="28.7265625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="21.54296875" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="1" width="22.81640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="19.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="51.0" collapsed="true"/>
-    <col min="10" max="16384" style="1" width="12.6328125" collapsed="true"/>
+    <col min="1" max="1" width="13.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="22.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="51" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="12.6328125" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
